--- a/src/test/resources/getconfig_winrm.xlsx
+++ b/src/test/resources/getconfig_winrm.xlsx
@@ -18,17 +18,17 @@
   <calcPr iterateDelta="0.0001"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1609307454" val="978" rev="124" revOS="4" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1609307454" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1609307454" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1609307454"/>
+      <pm:revision xmlns:pm="smNativeData" day="1609317816" val="978" rev="124" revOS="4" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1609317816" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1609317816" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1609317816"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="85">
   <si>
     <t>1. プロジェクト作成</t>
   </si>
@@ -313,7 +313,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1609307454" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1609317816" ulstyle="none" kern="1">
             <pm:latin face="ＭＳ Ｐゴシック" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -328,7 +328,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1609307454" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1609317816" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -344,7 +344,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1609307454" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1609317816" ulstyle="none" kern="1">
             <pm:latin face="ＭＳ Ｐゴシック" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -366,7 +366,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1609307454" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFCC"/>
+            <pm:shade xmlns:pm="smNativeData" id="1609317816" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFCC"/>
           </ext>
         </extLst>
       </patternFill>
@@ -377,7 +377,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1609307454" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFCC"/>
+            <pm:shade xmlns:pm="smNativeData" id="1609317816" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFCC"/>
           </ext>
         </extLst>
       </patternFill>
@@ -388,7 +388,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1609307454" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFCC"/>
+            <pm:shade xmlns:pm="smNativeData" id="1609317816" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFCC"/>
           </ext>
         </extLst>
       </patternFill>
@@ -399,7 +399,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1609307454" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFCC"/>
+            <pm:shade xmlns:pm="smNativeData" id="1609317816" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFCC"/>
           </ext>
         </extLst>
       </patternFill>
@@ -410,7 +410,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1609307454" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFCC"/>
+            <pm:shade xmlns:pm="smNativeData" id="1609317816" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFCC"/>
           </ext>
         </extLst>
       </patternFill>
@@ -421,7 +421,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1609307454" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFCC"/>
+            <pm:shade xmlns:pm="smNativeData" id="1609317816" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFCC"/>
           </ext>
         </extLst>
       </patternFill>
@@ -432,7 +432,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1609307454" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFCC"/>
+            <pm:shade xmlns:pm="smNativeData" id="1609317816" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFCC"/>
           </ext>
         </extLst>
       </patternFill>
@@ -443,7 +443,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1609307454" type="1" fgLvl="100" fgClr="00CCFFFF" bgLvl="0" bgClr="00CCFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1609317816" type="1" fgLvl="100" fgClr="00CCFFFF" bgLvl="0" bgClr="00CCFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -454,7 +454,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1609307454" type="1" fgLvl="100" fgClr="00CCFFFF" bgLvl="0" bgClr="00CCFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1609317816" type="1" fgLvl="100" fgClr="00CCFFFF" bgLvl="0" bgClr="00CCFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -465,7 +465,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1609307454" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFCC"/>
+            <pm:shade xmlns:pm="smNativeData" id="1609317816" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFCC"/>
           </ext>
         </extLst>
       </patternFill>
@@ -476,7 +476,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1609307454" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFCC"/>
+            <pm:shade xmlns:pm="smNativeData" id="1609317816" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFCC"/>
           </ext>
         </extLst>
       </patternFill>
@@ -490,7 +490,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1609307454" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFCC"/>
+            <pm:shade xmlns:pm="smNativeData" id="1609317816" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFCC"/>
           </ext>
         </extLst>
       </patternFill>
@@ -501,7 +501,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1609307454" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFCC"/>
+            <pm:shade xmlns:pm="smNativeData" id="1609317816" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFCC"/>
           </ext>
         </extLst>
       </patternFill>
@@ -515,7 +515,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1609307454" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFCC"/>
+            <pm:shade xmlns:pm="smNativeData" id="1609317816" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFCC"/>
           </ext>
         </extLst>
       </patternFill>
@@ -526,7 +526,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1609307454" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFCC"/>
+            <pm:shade xmlns:pm="smNativeData" id="1609317816" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFCC"/>
           </ext>
         </extLst>
       </patternFill>
@@ -537,7 +537,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1609307454" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFCC"/>
+            <pm:shade xmlns:pm="smNativeData" id="1609317816" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFCC"/>
           </ext>
         </extLst>
       </patternFill>
@@ -548,7 +548,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1609307454" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFCC"/>
+            <pm:shade xmlns:pm="smNativeData" id="1609317816" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFCC"/>
           </ext>
         </extLst>
       </patternFill>
@@ -559,7 +559,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1609307454" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFCC"/>
+            <pm:shade xmlns:pm="smNativeData" id="1609317816" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFCC"/>
           </ext>
         </extLst>
       </patternFill>
@@ -573,7 +573,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1609307454" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1609317816" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -595,7 +595,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1609307454"/>
+          <pm:border xmlns:pm="smNativeData" id="1609317816"/>
         </ext>
       </extLst>
     </border>
@@ -614,7 +614,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1609307454"/>
+          <pm:border xmlns:pm="smNativeData" id="1609317816"/>
         </ext>
       </extLst>
     </border>
@@ -633,7 +633,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1609307454">
+          <pm:border xmlns:pm="smNativeData" id="1609317816">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -655,7 +655,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1609307454">
+          <pm:border xmlns:pm="smNativeData" id="1609317816">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -676,7 +676,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1609307454">
+          <pm:border xmlns:pm="smNativeData" id="1609317816">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -698,7 +698,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1609307454">
+          <pm:border xmlns:pm="smNativeData" id="1609317816">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -720,7 +720,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1609307454">
+          <pm:border xmlns:pm="smNativeData" id="1609317816">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -741,7 +741,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1609307454">
+          <pm:border xmlns:pm="smNativeData" id="1609317816">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -763,7 +763,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1609307454">
+          <pm:border xmlns:pm="smNativeData" id="1609317816">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -787,7 +787,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1609307454">
+          <pm:border xmlns:pm="smNativeData" id="1609317816">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="2" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -811,7 +811,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1609307454">
+          <pm:border xmlns:pm="smNativeData" id="1609317816">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -834,7 +834,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1609307454">
+          <pm:border xmlns:pm="smNativeData" id="1609317816">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -858,7 +858,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1609307454">
+          <pm:border xmlns:pm="smNativeData" id="1609317816">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -882,7 +882,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1609307454">
+          <pm:border xmlns:pm="smNativeData" id="1609317816">
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -904,7 +904,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1609307454">
+          <pm:border xmlns:pm="smNativeData" id="1609317816">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -927,7 +927,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1609307454">
+          <pm:border xmlns:pm="smNativeData" id="1609317816">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -950,7 +950,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1609307454">
+          <pm:border xmlns:pm="smNativeData" id="1609317816">
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -971,7 +971,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1609307454">
+          <pm:border xmlns:pm="smNativeData" id="1609317816">
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -992,7 +992,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1609307454">
+          <pm:border xmlns:pm="smNativeData" id="1609317816">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1015,7 +1015,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1609307454">
+          <pm:border xmlns:pm="smNativeData" id="1609317816">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -1037,7 +1037,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1609307454">
+          <pm:border xmlns:pm="smNativeData" id="1609317816">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1060,7 +1060,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1609307454">
+          <pm:border xmlns:pm="smNativeData" id="1609317816">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1083,7 +1083,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1609307454"/>
+          <pm:border xmlns:pm="smNativeData" id="1609317816"/>
         </ext>
       </extLst>
     </border>
@@ -1111,7 +1111,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1131,9 +1131,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1">
@@ -1236,10 +1233,10 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1609307454" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1609317816" count="1">
         <pm:charStyle name="標準" fontId="0" Id="1"/>
       </pm:charStyles>
-      <pm:colors xmlns:pm="smNativeData" id="1609307454" count="3">
+      <pm:colors xmlns:pm="smNativeData" id="1609317816" count="3">
         <pm:color name="色 24" rgb="FFFFCC"/>
         <pm:color name="色 25" rgb="CCFFFF"/>
         <pm:color name="*20%灰色" rgb="000000"/>
@@ -1513,1494 +1510,1494 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="2" width="3.500000" customWidth="1" style="7"/>
-    <col min="3" max="3" width="18.245455" customWidth="1" style="7"/>
-    <col min="4" max="11" width="14.627273" customWidth="1" style="7"/>
-    <col min="12" max="12" width="8.763636" customWidth="1" style="7"/>
+    <col min="1" max="2" width="3.500000" customWidth="1" style="0"/>
+    <col min="3" max="3" width="18.245455" customWidth="1" style="0"/>
+    <col min="4" max="11" width="14.627273" customWidth="1" style="0"/>
+    <col min="12" max="12" width="8.763636" customWidth="1" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8" t="s">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8" t="s">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="9" t="s">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="8"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="7"/>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="12" t="s">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="8"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="7"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8" t="s">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8" t="s">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="15" t="s">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="15"/>
-      <c r="L14" s="8"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="7"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="16" t="s">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="16" t="s">
+      <c r="D15" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="16" t="s">
+      <c r="E15" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="F15" s="16" t="s">
+      <c r="F15" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="G15" s="16" t="s">
+      <c r="G15" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="H15" s="16" t="s">
+      <c r="H15" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="I15" s="16" t="s">
+      <c r="I15" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="J15" s="16" t="s">
+      <c r="J15" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="K15" s="16" t="s">
+      <c r="K15" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="L15" s="8"/>
+      <c r="L15" s="7"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="17" t="s">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="17" t="s">
+      <c r="D16" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E16" s="17" t="s">
+      <c r="E16" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="F16" s="17" t="s">
+      <c r="F16" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="G16" s="17" t="s">
+      <c r="G16" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="H16" s="17" t="s">
+      <c r="H16" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="I16" s="17" t="s">
+      <c r="I16" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="J16" s="17" t="s">
+      <c r="J16" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="K16" s="17" t="s">
+      <c r="K16" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="L16" s="8"/>
+      <c r="L16" s="7"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="8"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="18" t="s">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="18" t="s">
+      <c r="D17" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E17" s="19" t="s">
+      <c r="E17" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="F17" s="19" t="s">
+      <c r="F17" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="19" t="s">
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="K17" s="18"/>
-      <c r="L17" s="8"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="7"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18" t="s">
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19" t="s">
+      <c r="E18" s="18"/>
+      <c r="F18" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="20" t="s">
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="J18" s="20" t="s">
+      <c r="J18" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="K18" s="21"/>
-      <c r="L18" s="8"/>
+      <c r="K18" s="20"/>
+      <c r="L18" s="7"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="18" t="s">
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="D19" s="18" t="s">
+      <c r="D19" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E19" s="19" t="s">
+      <c r="E19" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="F19" s="19" t="s">
+      <c r="F19" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="20"/>
-      <c r="J19" s="20" t="s">
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="K19" s="21"/>
-      <c r="L19" s="8"/>
+      <c r="K19" s="20"/>
+      <c r="L19" s="7"/>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="8"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18" t="s">
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19" t="s">
+      <c r="E20" s="18"/>
+      <c r="F20" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="G20" s="19"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="20" t="s">
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="J20" s="20" t="s">
+      <c r="J20" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="K20" s="21"/>
-      <c r="L20" s="8"/>
+      <c r="K20" s="20"/>
+      <c r="L20" s="7"/>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="8"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="18" t="s">
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="18" t="s">
+      <c r="D21" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E21" s="19" t="s">
+      <c r="E21" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="F21" s="19" t="s">
+      <c r="F21" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="G21" s="19"/>
-      <c r="H21" s="19"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="20"/>
-      <c r="K21" s="21"/>
-      <c r="L21" s="8"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="20"/>
+      <c r="L21" s="7"/>
     </row>
     <row r="22" spans="1:12">
-      <c r="A22" s="8"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="18" t="s">
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19" t="s">
+      <c r="E22" s="18"/>
+      <c r="F22" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="G22" s="20"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20" t="s">
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="J22" s="20"/>
-      <c r="K22" s="21"/>
-      <c r="L22" s="8"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="20"/>
+      <c r="L22" s="7"/>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23" s="8"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="18" t="s">
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="D23" s="18" t="s">
+      <c r="D23" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="E23" s="19" t="s">
+      <c r="E23" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F23" s="19" t="s">
+      <c r="F23" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="G23" s="19"/>
-      <c r="H23" s="19" t="s">
+      <c r="G23" s="18"/>
+      <c r="H23" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="I23" s="20"/>
-      <c r="J23" s="20" t="s">
+      <c r="I23" s="19"/>
+      <c r="J23" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="K23" s="22"/>
-      <c r="L23" s="8"/>
+      <c r="K23" s="21"/>
+      <c r="L23" s="7"/>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="8"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="18" t="s">
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19" t="s">
+      <c r="E24" s="18"/>
+      <c r="F24" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="G24" s="20"/>
-      <c r="H24" s="20"/>
-      <c r="I24" s="20"/>
-      <c r="J24" s="20" t="s">
+      <c r="G24" s="19"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="K24" s="22"/>
-      <c r="L24" s="8"/>
+      <c r="K24" s="21"/>
+      <c r="L24" s="7"/>
     </row>
     <row r="25" spans="1:12">
-      <c r="A25" s="8"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="18" t="s">
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="D25" s="18" t="s">
+      <c r="D25" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="E25" s="19" t="s">
+      <c r="E25" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="F25" s="19" t="s">
+      <c r="F25" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="G25" s="19"/>
-      <c r="H25" s="19"/>
-      <c r="I25" s="20"/>
-      <c r="J25" s="20"/>
-      <c r="K25" s="22"/>
-      <c r="L25" s="8"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="19"/>
+      <c r="K25" s="21"/>
+      <c r="L25" s="7"/>
     </row>
     <row r="26" spans="1:12">
-      <c r="A26" s="8"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="23" t="s">
+      <c r="A26" s="7"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24" t="s">
+      <c r="E26" s="23"/>
+      <c r="F26" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="G26" s="25"/>
-      <c r="H26" s="25"/>
-      <c r="I26" s="25"/>
-      <c r="J26" s="25"/>
-      <c r="K26" s="26"/>
-      <c r="L26" s="8"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="24"/>
+      <c r="J26" s="24"/>
+      <c r="K26" s="25"/>
+      <c r="L26" s="7"/>
     </row>
     <row r="27" spans="1:12">
-      <c r="A27" s="8"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="27"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="27"/>
-      <c r="H27" s="27"/>
-      <c r="I27" s="27"/>
-      <c r="J27" s="27"/>
-      <c r="K27" s="27"/>
-      <c r="L27" s="8"/>
+      <c r="A27" s="7"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="26"/>
+      <c r="I27" s="26"/>
+      <c r="J27" s="26"/>
+      <c r="K27" s="26"/>
+      <c r="L27" s="7"/>
     </row>
     <row r="28" spans="1:12">
-      <c r="A28" s="8"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
-      <c r="K28" s="8"/>
-      <c r="L28" s="8"/>
+      <c r="A28" s="7"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7"/>
     </row>
     <row r="29" spans="1:12">
-      <c r="A29" s="8"/>
-      <c r="B29" s="8" t="s">
+      <c r="A29" s="7"/>
+      <c r="B29" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C29" s="8" t="s">
+      <c r="C29" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D29" s="8" t="s">
+      <c r="D29" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="8"/>
-      <c r="K29" s="8"/>
-      <c r="L29" s="8"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="7"/>
     </row>
     <row r="30" spans="1:12">
-      <c r="A30" s="8"/>
-      <c r="B30" s="8" t="s">
+      <c r="A30" s="7"/>
+      <c r="B30" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C30" s="8" t="s">
+      <c r="C30" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D30" s="8" t="s">
+      <c r="D30" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="8"/>
-      <c r="K30" s="8"/>
-      <c r="L30" s="8"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
+      <c r="L30" s="7"/>
     </row>
     <row r="31" spans="1:12">
-      <c r="A31" s="8"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8" t="s">
+      <c r="A31" s="7"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D31" s="8" t="s">
+      <c r="D31" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="8"/>
-      <c r="K31" s="8"/>
-      <c r="L31" s="8"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
+      <c r="L31" s="7"/>
     </row>
     <row r="32" spans="1:12">
-      <c r="A32" s="8"/>
-      <c r="B32" s="8" t="s">
+      <c r="A32" s="7"/>
+      <c r="B32" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C32" s="8" t="s">
+      <c r="C32" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D32" s="8" t="s">
+      <c r="D32" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="8"/>
-      <c r="J32" s="8"/>
-      <c r="K32" s="8"/>
-      <c r="L32" s="8"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="7"/>
+      <c r="L32" s="7"/>
     </row>
     <row r="33" spans="1:12">
-      <c r="A33" s="8"/>
-      <c r="B33" s="8"/>
-      <c r="C33" s="8" t="s">
+      <c r="A33" s="7"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D33" s="8" t="s">
+      <c r="D33" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="8"/>
-      <c r="I33" s="8"/>
-      <c r="J33" s="8"/>
-      <c r="K33" s="8"/>
-      <c r="L33" s="8"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="7"/>
+      <c r="L33" s="7"/>
     </row>
     <row r="34" spans="1:12">
-      <c r="A34" s="8"/>
-      <c r="B34" s="8"/>
-      <c r="C34" s="8" t="s">
+      <c r="A34" s="7"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D34" s="8" t="s">
+      <c r="D34" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="8"/>
-      <c r="J34" s="8"/>
-      <c r="K34" s="8"/>
-      <c r="L34" s="8"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="7"/>
+      <c r="L34" s="7"/>
     </row>
     <row r="35" spans="1:12">
-      <c r="A35" s="8"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="8" t="s">
+      <c r="A35" s="7"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D35" s="8" t="s">
+      <c r="D35" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8"/>
-      <c r="I35" s="8"/>
-      <c r="J35" s="8"/>
-      <c r="K35" s="8"/>
-      <c r="L35" s="8"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="7"/>
+      <c r="K35" s="7"/>
+      <c r="L35" s="7"/>
     </row>
     <row r="36" spans="1:12">
-      <c r="A36" s="8"/>
-      <c r="B36" s="8"/>
-      <c r="C36" s="8" t="s">
+      <c r="A36" s="7"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D36" s="8" t="s">
+      <c r="D36" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="8"/>
-      <c r="I36" s="8"/>
-      <c r="J36" s="8"/>
-      <c r="K36" s="8"/>
-      <c r="L36" s="8"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="7"/>
+      <c r="K36" s="7"/>
+      <c r="L36" s="7"/>
     </row>
     <row r="37" spans="1:12">
-      <c r="A37" s="8"/>
-      <c r="B37" s="8"/>
-      <c r="C37" s="8" t="s">
+      <c r="A37" s="7"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D37" s="8" t="s">
+      <c r="D37" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="8"/>
-      <c r="I37" s="8"/>
-      <c r="J37" s="8"/>
-      <c r="K37" s="8"/>
-      <c r="L37" s="8"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="7"/>
+      <c r="K37" s="7"/>
+      <c r="L37" s="7"/>
     </row>
     <row r="38" spans="1:12">
-      <c r="A38" s="8"/>
-      <c r="B38" s="8"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="8"/>
-      <c r="I38" s="8"/>
-      <c r="J38" s="8"/>
-      <c r="K38" s="8"/>
-      <c r="L38" s="8"/>
+      <c r="A38" s="7"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="7"/>
+      <c r="J38" s="7"/>
+      <c r="K38" s="7"/>
+      <c r="L38" s="7"/>
     </row>
     <row r="39" spans="1:12">
-      <c r="A39" s="8"/>
-      <c r="B39" s="8"/>
-      <c r="C39" s="8" t="s">
+      <c r="A39" s="7"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="8"/>
-      <c r="G39" s="8"/>
-      <c r="H39" s="8"/>
-      <c r="I39" s="8"/>
-      <c r="J39" s="8"/>
-      <c r="K39" s="8"/>
-      <c r="L39" s="8"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="7"/>
+      <c r="J39" s="7"/>
+      <c r="K39" s="7"/>
+      <c r="L39" s="7"/>
     </row>
     <row r="40" spans="1:12">
-      <c r="A40" s="8"/>
-      <c r="B40" s="8"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="8"/>
-      <c r="I40" s="8"/>
-      <c r="J40" s="8"/>
-      <c r="K40" s="8"/>
-      <c r="L40" s="8"/>
+      <c r="A40" s="7"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="7"/>
+      <c r="J40" s="7"/>
+      <c r="K40" s="7"/>
+      <c r="L40" s="7"/>
     </row>
     <row r="41" spans="1:12">
-      <c r="A41" s="8" t="s">
+      <c r="A41" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="B41" s="8"/>
-      <c r="C41" s="8"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="8"/>
-      <c r="F41" s="8"/>
-      <c r="G41" s="8"/>
-      <c r="H41" s="8"/>
-      <c r="I41" s="8"/>
-      <c r="J41" s="8"/>
-      <c r="K41" s="8"/>
-      <c r="L41" s="8"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="7"/>
+      <c r="J41" s="7"/>
+      <c r="K41" s="7"/>
+      <c r="L41" s="7"/>
     </row>
     <row r="42" spans="1:12">
-      <c r="A42" s="8"/>
-      <c r="B42" s="8"/>
-      <c r="C42" s="8"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="8"/>
-      <c r="F42" s="8"/>
-      <c r="G42" s="8"/>
-      <c r="H42" s="8"/>
-      <c r="I42" s="8"/>
-      <c r="J42" s="8"/>
-      <c r="K42" s="8"/>
-      <c r="L42" s="8"/>
+      <c r="A42" s="7"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="7"/>
+      <c r="J42" s="7"/>
+      <c r="K42" s="7"/>
+      <c r="L42" s="7"/>
     </row>
     <row r="43" spans="1:12">
-      <c r="A43" s="8"/>
-      <c r="B43" s="8" t="s">
+      <c r="A43" s="7"/>
+      <c r="B43" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C43" s="8"/>
-      <c r="D43" s="8"/>
-      <c r="E43" s="8"/>
-      <c r="F43" s="8"/>
-      <c r="G43" s="8"/>
-      <c r="H43" s="8"/>
-      <c r="I43" s="8"/>
-      <c r="J43" s="8"/>
-      <c r="K43" s="8"/>
-      <c r="L43" s="8"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="7"/>
+      <c r="J43" s="7"/>
+      <c r="K43" s="7"/>
+      <c r="L43" s="7"/>
     </row>
     <row r="44" spans="1:12">
-      <c r="A44" s="8"/>
-      <c r="B44" s="8"/>
-      <c r="C44" s="8"/>
-      <c r="D44" s="8"/>
-      <c r="E44" s="8"/>
-      <c r="F44" s="8"/>
-      <c r="G44" s="8"/>
-      <c r="H44" s="8"/>
-      <c r="I44" s="8"/>
-      <c r="J44" s="8"/>
-      <c r="K44" s="8"/>
-      <c r="L44" s="8"/>
+      <c r="A44" s="7"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="7"/>
+      <c r="J44" s="7"/>
+      <c r="K44" s="7"/>
+      <c r="L44" s="7"/>
     </row>
     <row r="45" spans="1:12">
-      <c r="A45" s="8"/>
-      <c r="B45" s="8"/>
-      <c r="C45" s="9" t="s">
+      <c r="A45" s="7"/>
+      <c r="B45" s="7"/>
+      <c r="C45" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="D45" s="10"/>
-      <c r="E45" s="10"/>
-      <c r="F45" s="10"/>
-      <c r="G45" s="10"/>
-      <c r="H45" s="10"/>
-      <c r="I45" s="10"/>
-      <c r="J45" s="10"/>
-      <c r="K45" s="11"/>
-      <c r="L45" s="8"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="9"/>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="10"/>
+      <c r="L45" s="7"/>
     </row>
     <row r="46" spans="1:12">
-      <c r="A46" s="8"/>
-      <c r="B46" s="8"/>
-      <c r="C46" s="12" t="s">
+      <c r="A46" s="7"/>
+      <c r="B46" s="7"/>
+      <c r="C46" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="D46" s="13"/>
-      <c r="E46" s="13"/>
-      <c r="F46" s="13"/>
-      <c r="G46" s="13"/>
-      <c r="H46" s="13"/>
-      <c r="I46" s="13"/>
-      <c r="J46" s="13"/>
-      <c r="K46" s="14"/>
-      <c r="L46" s="8"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="12"/>
+      <c r="G46" s="12"/>
+      <c r="H46" s="12"/>
+      <c r="I46" s="12"/>
+      <c r="J46" s="12"/>
+      <c r="K46" s="13"/>
+      <c r="L46" s="7"/>
     </row>
     <row r="47" spans="1:12">
-      <c r="A47" s="8"/>
-      <c r="B47" s="8"/>
-      <c r="C47" s="8"/>
-      <c r="D47" s="8"/>
-      <c r="E47" s="8"/>
-      <c r="F47" s="8"/>
-      <c r="G47" s="8"/>
-      <c r="H47" s="8"/>
-      <c r="I47" s="8"/>
-      <c r="J47" s="8"/>
-      <c r="K47" s="8"/>
-      <c r="L47" s="8"/>
+      <c r="A47" s="7"/>
+      <c r="B47" s="7"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="7"/>
+      <c r="J47" s="7"/>
+      <c r="K47" s="7"/>
+      <c r="L47" s="7"/>
     </row>
     <row r="48" spans="1:12">
-      <c r="A48" s="8"/>
-      <c r="B48" s="8" t="s">
+      <c r="A48" s="7"/>
+      <c r="B48" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C48" s="8"/>
-      <c r="D48" s="8"/>
-      <c r="E48" s="8"/>
-      <c r="F48" s="8"/>
-      <c r="G48" s="8"/>
-      <c r="H48" s="8"/>
-      <c r="I48" s="8"/>
-      <c r="J48" s="8"/>
-      <c r="K48" s="8"/>
-      <c r="L48" s="8"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="7"/>
+      <c r="I48" s="7"/>
+      <c r="J48" s="7"/>
+      <c r="K48" s="7"/>
+      <c r="L48" s="7"/>
     </row>
     <row r="49" spans="1:12">
-      <c r="A49" s="8"/>
-      <c r="B49" s="8"/>
-      <c r="C49" s="8"/>
-      <c r="D49" s="8"/>
-      <c r="E49" s="8"/>
-      <c r="F49" s="8"/>
-      <c r="G49" s="8"/>
-      <c r="H49" s="8"/>
-      <c r="I49" s="8"/>
-      <c r="J49" s="8"/>
-      <c r="K49" s="8"/>
-      <c r="L49" s="8"/>
+      <c r="A49" s="7"/>
+      <c r="B49" s="7"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="7"/>
+      <c r="H49" s="7"/>
+      <c r="I49" s="7"/>
+      <c r="J49" s="7"/>
+      <c r="K49" s="7"/>
+      <c r="L49" s="7"/>
     </row>
     <row r="50" spans="1:12">
-      <c r="A50" s="8"/>
-      <c r="B50" s="8"/>
-      <c r="C50" s="9" t="s">
+      <c r="A50" s="7"/>
+      <c r="B50" s="7"/>
+      <c r="C50" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="D50" s="10"/>
-      <c r="E50" s="10"/>
-      <c r="F50" s="10"/>
-      <c r="G50" s="10"/>
-      <c r="H50" s="10"/>
-      <c r="I50" s="10"/>
-      <c r="J50" s="10"/>
-      <c r="K50" s="11"/>
-      <c r="L50" s="8"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="9"/>
+      <c r="H50" s="9"/>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="10"/>
+      <c r="L50" s="7"/>
     </row>
     <row r="51" spans="1:12">
-      <c r="A51" s="8"/>
-      <c r="B51" s="8"/>
-      <c r="C51" s="28"/>
-      <c r="D51" s="8"/>
-      <c r="E51" s="8"/>
-      <c r="F51" s="8"/>
-      <c r="G51" s="8"/>
-      <c r="H51" s="8"/>
-      <c r="I51" s="8"/>
-      <c r="J51" s="8"/>
-      <c r="K51" s="29"/>
-      <c r="L51" s="8"/>
+      <c r="A51" s="7"/>
+      <c r="B51" s="7"/>
+      <c r="C51" s="27"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="7"/>
+      <c r="H51" s="7"/>
+      <c r="I51" s="7"/>
+      <c r="J51" s="7"/>
+      <c r="K51" s="28"/>
+      <c r="L51" s="7"/>
     </row>
     <row r="52" spans="1:12">
-      <c r="A52" s="8"/>
-      <c r="B52" s="8"/>
-      <c r="C52" s="28" t="s">
+      <c r="A52" s="7"/>
+      <c r="B52" s="7"/>
+      <c r="C52" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="D52" s="8"/>
-      <c r="E52" s="8"/>
-      <c r="F52" s="8"/>
-      <c r="G52" s="8"/>
-      <c r="H52" s="8"/>
-      <c r="I52" s="8"/>
-      <c r="J52" s="8"/>
-      <c r="K52" s="29"/>
-      <c r="L52" s="8"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="7"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="7"/>
+      <c r="H52" s="7"/>
+      <c r="I52" s="7"/>
+      <c r="J52" s="7"/>
+      <c r="K52" s="28"/>
+      <c r="L52" s="7"/>
     </row>
     <row r="53" spans="1:12">
-      <c r="A53" s="8"/>
-      <c r="B53" s="8"/>
-      <c r="C53" s="28" t="s">
+      <c r="A53" s="7"/>
+      <c r="B53" s="7"/>
+      <c r="C53" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="D53" s="8"/>
-      <c r="E53" s="8"/>
-      <c r="F53" s="8"/>
-      <c r="G53" s="8"/>
-      <c r="H53" s="8"/>
-      <c r="I53" s="8"/>
-      <c r="J53" s="8"/>
-      <c r="K53" s="29"/>
-      <c r="L53" s="8"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="7"/>
+      <c r="H53" s="7"/>
+      <c r="I53" s="7"/>
+      <c r="J53" s="7"/>
+      <c r="K53" s="28"/>
+      <c r="L53" s="7"/>
     </row>
     <row r="54" spans="1:12">
-      <c r="A54" s="8"/>
-      <c r="B54" s="8"/>
-      <c r="C54" s="28" t="s">
+      <c r="A54" s="7"/>
+      <c r="B54" s="7"/>
+      <c r="C54" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="D54" s="8"/>
-      <c r="E54" s="8"/>
-      <c r="F54" s="8"/>
-      <c r="G54" s="8"/>
-      <c r="H54" s="8"/>
-      <c r="I54" s="8"/>
-      <c r="J54" s="8"/>
-      <c r="K54" s="29"/>
-      <c r="L54" s="8"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="7"/>
+      <c r="G54" s="7"/>
+      <c r="H54" s="7"/>
+      <c r="I54" s="7"/>
+      <c r="J54" s="7"/>
+      <c r="K54" s="28"/>
+      <c r="L54" s="7"/>
     </row>
     <row r="55" spans="1:12">
-      <c r="A55" s="8"/>
-      <c r="B55" s="8"/>
-      <c r="C55" s="28"/>
-      <c r="D55" s="8"/>
-      <c r="E55" s="8"/>
-      <c r="F55" s="8"/>
-      <c r="G55" s="8"/>
-      <c r="H55" s="8"/>
-      <c r="I55" s="8"/>
-      <c r="J55" s="8"/>
-      <c r="K55" s="29"/>
-      <c r="L55" s="8"/>
+      <c r="A55" s="7"/>
+      <c r="B55" s="7"/>
+      <c r="C55" s="27"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="7"/>
+      <c r="F55" s="7"/>
+      <c r="G55" s="7"/>
+      <c r="H55" s="7"/>
+      <c r="I55" s="7"/>
+      <c r="J55" s="7"/>
+      <c r="K55" s="28"/>
+      <c r="L55" s="7"/>
     </row>
     <row r="56" spans="1:12">
-      <c r="A56" s="8"/>
-      <c r="B56" s="8"/>
-      <c r="C56" s="28" t="s">
+      <c r="A56" s="7"/>
+      <c r="B56" s="7"/>
+      <c r="C56" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="D56" s="8"/>
-      <c r="E56" s="8"/>
-      <c r="F56" s="8"/>
-      <c r="G56" s="8"/>
-      <c r="H56" s="8"/>
-      <c r="I56" s="8"/>
-      <c r="J56" s="8"/>
-      <c r="K56" s="29"/>
-      <c r="L56" s="8"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="7"/>
+      <c r="F56" s="7"/>
+      <c r="G56" s="7"/>
+      <c r="H56" s="7"/>
+      <c r="I56" s="7"/>
+      <c r="J56" s="7"/>
+      <c r="K56" s="28"/>
+      <c r="L56" s="7"/>
     </row>
     <row r="57" spans="1:12">
-      <c r="A57" s="8"/>
-      <c r="B57" s="8"/>
-      <c r="C57" s="28"/>
-      <c r="D57" s="8"/>
-      <c r="E57" s="8"/>
-      <c r="F57" s="8"/>
-      <c r="G57" s="8"/>
-      <c r="H57" s="8"/>
-      <c r="I57" s="8"/>
-      <c r="J57" s="8"/>
-      <c r="K57" s="29"/>
-      <c r="L57" s="8"/>
+      <c r="A57" s="7"/>
+      <c r="B57" s="7"/>
+      <c r="C57" s="27"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="7"/>
+      <c r="F57" s="7"/>
+      <c r="G57" s="7"/>
+      <c r="H57" s="7"/>
+      <c r="I57" s="7"/>
+      <c r="J57" s="7"/>
+      <c r="K57" s="28"/>
+      <c r="L57" s="7"/>
     </row>
     <row r="58" spans="1:12">
-      <c r="A58" s="8"/>
-      <c r="B58" s="8"/>
-      <c r="C58" s="28" t="s">
+      <c r="A58" s="7"/>
+      <c r="B58" s="7"/>
+      <c r="C58" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="D58" s="8"/>
-      <c r="E58" s="8"/>
-      <c r="F58" s="8"/>
-      <c r="G58" s="8"/>
-      <c r="H58" s="8"/>
-      <c r="I58" s="8"/>
-      <c r="J58" s="8"/>
-      <c r="K58" s="29"/>
-      <c r="L58" s="8"/>
+      <c r="D58" s="7"/>
+      <c r="E58" s="7"/>
+      <c r="F58" s="7"/>
+      <c r="G58" s="7"/>
+      <c r="H58" s="7"/>
+      <c r="I58" s="7"/>
+      <c r="J58" s="7"/>
+      <c r="K58" s="28"/>
+      <c r="L58" s="7"/>
     </row>
     <row r="59" spans="1:12">
-      <c r="A59" s="8"/>
-      <c r="B59" s="8"/>
-      <c r="C59" s="28" t="s">
+      <c r="A59" s="7"/>
+      <c r="B59" s="7"/>
+      <c r="C59" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="D59" s="8"/>
-      <c r="E59" s="8"/>
-      <c r="F59" s="8"/>
-      <c r="G59" s="8"/>
-      <c r="H59" s="8"/>
-      <c r="I59" s="8"/>
-      <c r="J59" s="8"/>
-      <c r="K59" s="29"/>
-      <c r="L59" s="8"/>
+      <c r="D59" s="7"/>
+      <c r="E59" s="7"/>
+      <c r="F59" s="7"/>
+      <c r="G59" s="7"/>
+      <c r="H59" s="7"/>
+      <c r="I59" s="7"/>
+      <c r="J59" s="7"/>
+      <c r="K59" s="28"/>
+      <c r="L59" s="7"/>
     </row>
     <row r="60" spans="1:12">
-      <c r="A60" s="8"/>
-      <c r="B60" s="8"/>
-      <c r="C60" s="28"/>
-      <c r="D60" s="8"/>
-      <c r="E60" s="8"/>
-      <c r="F60" s="8"/>
-      <c r="G60" s="8"/>
-      <c r="H60" s="8"/>
-      <c r="I60" s="8"/>
-      <c r="J60" s="8"/>
-      <c r="K60" s="29"/>
-      <c r="L60" s="8"/>
+      <c r="A60" s="7"/>
+      <c r="B60" s="7"/>
+      <c r="C60" s="27"/>
+      <c r="D60" s="7"/>
+      <c r="E60" s="7"/>
+      <c r="F60" s="7"/>
+      <c r="G60" s="7"/>
+      <c r="H60" s="7"/>
+      <c r="I60" s="7"/>
+      <c r="J60" s="7"/>
+      <c r="K60" s="28"/>
+      <c r="L60" s="7"/>
     </row>
     <row r="61" spans="1:12">
-      <c r="A61" s="8"/>
-      <c r="B61" s="8"/>
-      <c r="C61" s="28" t="s">
+      <c r="A61" s="7"/>
+      <c r="B61" s="7"/>
+      <c r="C61" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="D61" s="8"/>
-      <c r="E61" s="8"/>
-      <c r="F61" s="8"/>
-      <c r="G61" s="8"/>
-      <c r="H61" s="8"/>
-      <c r="I61" s="8"/>
-      <c r="J61" s="8"/>
-      <c r="K61" s="29"/>
-      <c r="L61" s="8"/>
+      <c r="D61" s="7"/>
+      <c r="E61" s="7"/>
+      <c r="F61" s="7"/>
+      <c r="G61" s="7"/>
+      <c r="H61" s="7"/>
+      <c r="I61" s="7"/>
+      <c r="J61" s="7"/>
+      <c r="K61" s="28"/>
+      <c r="L61" s="7"/>
     </row>
     <row r="62" spans="1:12">
-      <c r="A62" s="8"/>
-      <c r="B62" s="8"/>
-      <c r="C62" s="28"/>
-      <c r="D62" s="8"/>
-      <c r="E62" s="8"/>
-      <c r="F62" s="8"/>
-      <c r="G62" s="8"/>
-      <c r="H62" s="8"/>
-      <c r="I62" s="8"/>
-      <c r="J62" s="8"/>
-      <c r="K62" s="29"/>
-      <c r="L62" s="8"/>
+      <c r="A62" s="7"/>
+      <c r="B62" s="7"/>
+      <c r="C62" s="27"/>
+      <c r="D62" s="7"/>
+      <c r="E62" s="7"/>
+      <c r="F62" s="7"/>
+      <c r="G62" s="7"/>
+      <c r="H62" s="7"/>
+      <c r="I62" s="7"/>
+      <c r="J62" s="7"/>
+      <c r="K62" s="28"/>
+      <c r="L62" s="7"/>
     </row>
     <row r="63" spans="1:12">
-      <c r="A63" s="8"/>
-      <c r="B63" s="8"/>
-      <c r="C63" s="28" t="s">
+      <c r="A63" s="7"/>
+      <c r="B63" s="7"/>
+      <c r="C63" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="D63" s="8"/>
-      <c r="E63" s="8"/>
-      <c r="F63" s="8"/>
-      <c r="G63" s="8"/>
-      <c r="H63" s="8"/>
-      <c r="I63" s="8"/>
-      <c r="J63" s="8"/>
-      <c r="K63" s="29"/>
-      <c r="L63" s="8"/>
+      <c r="D63" s="7"/>
+      <c r="E63" s="7"/>
+      <c r="F63" s="7"/>
+      <c r="G63" s="7"/>
+      <c r="H63" s="7"/>
+      <c r="I63" s="7"/>
+      <c r="J63" s="7"/>
+      <c r="K63" s="28"/>
+      <c r="L63" s="7"/>
     </row>
     <row r="64" spans="1:12">
-      <c r="A64" s="8"/>
-      <c r="B64" s="8"/>
-      <c r="C64" s="28" t="s">
+      <c r="A64" s="7"/>
+      <c r="B64" s="7"/>
+      <c r="C64" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="D64" s="8"/>
-      <c r="E64" s="8"/>
-      <c r="F64" s="8"/>
-      <c r="G64" s="8"/>
-      <c r="H64" s="8"/>
-      <c r="I64" s="8"/>
-      <c r="J64" s="8"/>
-      <c r="K64" s="29"/>
-      <c r="L64" s="8"/>
+      <c r="D64" s="7"/>
+      <c r="E64" s="7"/>
+      <c r="F64" s="7"/>
+      <c r="G64" s="7"/>
+      <c r="H64" s="7"/>
+      <c r="I64" s="7"/>
+      <c r="J64" s="7"/>
+      <c r="K64" s="28"/>
+      <c r="L64" s="7"/>
     </row>
     <row r="65" spans="1:12">
-      <c r="A65" s="8"/>
-      <c r="B65" s="8"/>
-      <c r="C65" s="12"/>
-      <c r="D65" s="13"/>
-      <c r="E65" s="13"/>
-      <c r="F65" s="13"/>
-      <c r="G65" s="13"/>
-      <c r="H65" s="13"/>
-      <c r="I65" s="13"/>
-      <c r="J65" s="13"/>
-      <c r="K65" s="14"/>
-      <c r="L65" s="8"/>
+      <c r="A65" s="7"/>
+      <c r="B65" s="7"/>
+      <c r="C65" s="11"/>
+      <c r="D65" s="12"/>
+      <c r="E65" s="12"/>
+      <c r="F65" s="12"/>
+      <c r="G65" s="12"/>
+      <c r="H65" s="12"/>
+      <c r="I65" s="12"/>
+      <c r="J65" s="12"/>
+      <c r="K65" s="13"/>
+      <c r="L65" s="7"/>
     </row>
     <row r="66" spans="1:12">
-      <c r="A66" s="8"/>
-      <c r="B66" s="8"/>
-      <c r="C66" s="8"/>
-      <c r="D66" s="8"/>
-      <c r="E66" s="8"/>
-      <c r="F66" s="8"/>
-      <c r="G66" s="8"/>
-      <c r="H66" s="8"/>
-      <c r="I66" s="8"/>
-      <c r="J66" s="8"/>
-      <c r="K66" s="8"/>
-      <c r="L66" s="8"/>
+      <c r="A66" s="7"/>
+      <c r="B66" s="7"/>
+      <c r="C66" s="7"/>
+      <c r="D66" s="7"/>
+      <c r="E66" s="7"/>
+      <c r="F66" s="7"/>
+      <c r="G66" s="7"/>
+      <c r="H66" s="7"/>
+      <c r="I66" s="7"/>
+      <c r="J66" s="7"/>
+      <c r="K66" s="7"/>
+      <c r="L66" s="7"/>
     </row>
     <row r="67" spans="1:12">
-      <c r="A67" s="8" t="s">
+      <c r="A67" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="B67" s="8"/>
-      <c r="C67" s="8"/>
-      <c r="D67" s="8"/>
-      <c r="E67" s="8"/>
-      <c r="F67" s="8"/>
-      <c r="G67" s="8"/>
-      <c r="H67" s="8"/>
-      <c r="I67" s="8"/>
-      <c r="J67" s="8"/>
-      <c r="K67" s="8"/>
-      <c r="L67" s="8"/>
+      <c r="B67" s="7"/>
+      <c r="C67" s="7"/>
+      <c r="D67" s="7"/>
+      <c r="E67" s="7"/>
+      <c r="F67" s="7"/>
+      <c r="G67" s="7"/>
+      <c r="H67" s="7"/>
+      <c r="I67" s="7"/>
+      <c r="J67" s="7"/>
+      <c r="K67" s="7"/>
+      <c r="L67" s="7"/>
     </row>
     <row r="68" spans="1:12">
-      <c r="A68" s="8"/>
-      <c r="B68" s="8"/>
-      <c r="C68" s="8"/>
-      <c r="D68" s="8"/>
-      <c r="E68" s="8"/>
-      <c r="F68" s="8"/>
-      <c r="G68" s="8"/>
-      <c r="H68" s="8"/>
-      <c r="I68" s="8"/>
-      <c r="J68" s="8"/>
-      <c r="K68" s="8"/>
-      <c r="L68" s="8"/>
+      <c r="A68" s="7"/>
+      <c r="B68" s="7"/>
+      <c r="C68" s="7"/>
+      <c r="D68" s="7"/>
+      <c r="E68" s="7"/>
+      <c r="F68" s="7"/>
+      <c r="G68" s="7"/>
+      <c r="H68" s="7"/>
+      <c r="I68" s="7"/>
+      <c r="J68" s="7"/>
+      <c r="K68" s="7"/>
+      <c r="L68" s="7"/>
     </row>
     <row r="69" spans="1:12">
-      <c r="A69" s="8"/>
-      <c r="B69" s="8" t="s">
+      <c r="A69" s="7"/>
+      <c r="B69" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="C69" s="8"/>
-      <c r="D69" s="8"/>
-      <c r="E69" s="8"/>
-      <c r="F69" s="8"/>
-      <c r="G69" s="8"/>
-      <c r="H69" s="8"/>
-      <c r="I69" s="8"/>
-      <c r="J69" s="8"/>
-      <c r="K69" s="8"/>
-      <c r="L69" s="8"/>
+      <c r="C69" s="7"/>
+      <c r="D69" s="7"/>
+      <c r="E69" s="7"/>
+      <c r="F69" s="7"/>
+      <c r="G69" s="7"/>
+      <c r="H69" s="7"/>
+      <c r="I69" s="7"/>
+      <c r="J69" s="7"/>
+      <c r="K69" s="7"/>
+      <c r="L69" s="7"/>
     </row>
     <row r="70" spans="1:12">
-      <c r="A70" s="8"/>
-      <c r="B70" s="8" t="s">
+      <c r="A70" s="7"/>
+      <c r="B70" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="C70" s="8"/>
-      <c r="D70" s="8"/>
-      <c r="E70" s="8"/>
-      <c r="F70" s="8"/>
-      <c r="G70" s="8"/>
-      <c r="H70" s="8"/>
-      <c r="I70" s="8"/>
-      <c r="J70" s="8"/>
-      <c r="K70" s="8"/>
-      <c r="L70" s="8"/>
+      <c r="C70" s="7"/>
+      <c r="D70" s="7"/>
+      <c r="E70" s="7"/>
+      <c r="F70" s="7"/>
+      <c r="G70" s="7"/>
+      <c r="H70" s="7"/>
+      <c r="I70" s="7"/>
+      <c r="J70" s="7"/>
+      <c r="K70" s="7"/>
+      <c r="L70" s="7"/>
     </row>
     <row r="71" spans="1:12">
-      <c r="A71" s="8"/>
-      <c r="B71" s="8"/>
-      <c r="C71" s="8"/>
-      <c r="D71" s="8"/>
-      <c r="E71" s="8"/>
-      <c r="F71" s="8"/>
-      <c r="G71" s="8"/>
-      <c r="H71" s="8"/>
-      <c r="I71" s="8"/>
-      <c r="J71" s="8"/>
-      <c r="K71" s="8"/>
-      <c r="L71" s="8"/>
+      <c r="A71" s="7"/>
+      <c r="B71" s="7"/>
+      <c r="C71" s="7"/>
+      <c r="D71" s="7"/>
+      <c r="E71" s="7"/>
+      <c r="F71" s="7"/>
+      <c r="G71" s="7"/>
+      <c r="H71" s="7"/>
+      <c r="I71" s="7"/>
+      <c r="J71" s="7"/>
+      <c r="K71" s="7"/>
+      <c r="L71" s="7"/>
     </row>
     <row r="72" spans="1:12">
-      <c r="A72" s="8"/>
-      <c r="B72" s="8"/>
-      <c r="C72" s="30" t="s">
+      <c r="A72" s="7"/>
+      <c r="B72" s="7"/>
+      <c r="C72" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="D72" s="31"/>
-      <c r="E72" s="31"/>
-      <c r="F72" s="31"/>
-      <c r="G72" s="31"/>
-      <c r="H72" s="31"/>
-      <c r="I72" s="31"/>
-      <c r="J72" s="31"/>
-      <c r="K72" s="32"/>
-      <c r="L72" s="8"/>
+      <c r="D72" s="30"/>
+      <c r="E72" s="30"/>
+      <c r="F72" s="30"/>
+      <c r="G72" s="30"/>
+      <c r="H72" s="30"/>
+      <c r="I72" s="30"/>
+      <c r="J72" s="30"/>
+      <c r="K72" s="31"/>
+      <c r="L72" s="7"/>
     </row>
     <row r="73" spans="1:12">
-      <c r="A73" s="8"/>
-      <c r="B73" s="8"/>
-      <c r="C73" s="8"/>
-      <c r="D73" s="8"/>
-      <c r="E73" s="8"/>
-      <c r="F73" s="8"/>
-      <c r="G73" s="8"/>
-      <c r="H73" s="8"/>
-      <c r="I73" s="8"/>
-      <c r="J73" s="8"/>
-      <c r="K73" s="8"/>
-      <c r="L73" s="8"/>
+      <c r="A73" s="7"/>
+      <c r="B73" s="7"/>
+      <c r="C73" s="7"/>
+      <c r="D73" s="7"/>
+      <c r="E73" s="7"/>
+      <c r="F73" s="7"/>
+      <c r="G73" s="7"/>
+      <c r="H73" s="7"/>
+      <c r="I73" s="7"/>
+      <c r="J73" s="7"/>
+      <c r="K73" s="7"/>
+      <c r="L73" s="7"/>
     </row>
     <row r="74" spans="1:12">
-      <c r="A74" s="8"/>
-      <c r="B74" s="8" t="s">
+      <c r="A74" s="7"/>
+      <c r="B74" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="C74" s="8"/>
-      <c r="D74" s="8"/>
-      <c r="E74" s="8"/>
-      <c r="F74" s="8"/>
-      <c r="G74" s="8"/>
-      <c r="H74" s="8"/>
-      <c r="I74" s="8"/>
-      <c r="J74" s="8"/>
-      <c r="K74" s="8"/>
-      <c r="L74" s="8"/>
+      <c r="C74" s="7"/>
+      <c r="D74" s="7"/>
+      <c r="E74" s="7"/>
+      <c r="F74" s="7"/>
+      <c r="G74" s="7"/>
+      <c r="H74" s="7"/>
+      <c r="I74" s="7"/>
+      <c r="J74" s="7"/>
+      <c r="K74" s="7"/>
+      <c r="L74" s="7"/>
     </row>
     <row r="75" spans="1:12">
-      <c r="A75" s="8"/>
-      <c r="B75" s="8"/>
-      <c r="C75" s="8"/>
-      <c r="D75" s="8"/>
-      <c r="E75" s="8"/>
-      <c r="F75" s="8"/>
-      <c r="G75" s="8"/>
-      <c r="H75" s="8"/>
-      <c r="I75" s="8"/>
-      <c r="J75" s="8"/>
-      <c r="K75" s="8"/>
-      <c r="L75" s="8"/>
+      <c r="A75" s="7"/>
+      <c r="B75" s="7"/>
+      <c r="C75" s="7"/>
+      <c r="D75" s="7"/>
+      <c r="E75" s="7"/>
+      <c r="F75" s="7"/>
+      <c r="G75" s="7"/>
+      <c r="H75" s="7"/>
+      <c r="I75" s="7"/>
+      <c r="J75" s="7"/>
+      <c r="K75" s="7"/>
+      <c r="L75" s="7"/>
     </row>
     <row r="76" spans="1:12">
-      <c r="A76" s="8" t="s">
+      <c r="A76" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="B76" s="8"/>
-      <c r="C76" s="8"/>
-      <c r="D76" s="8"/>
-      <c r="E76" s="8"/>
-      <c r="F76" s="8"/>
-      <c r="G76" s="8"/>
-      <c r="H76" s="8"/>
-      <c r="I76" s="8"/>
-      <c r="J76" s="8"/>
-      <c r="K76" s="8"/>
-      <c r="L76" s="8"/>
+      <c r="B76" s="7"/>
+      <c r="C76" s="7"/>
+      <c r="D76" s="7"/>
+      <c r="E76" s="7"/>
+      <c r="F76" s="7"/>
+      <c r="G76" s="7"/>
+      <c r="H76" s="7"/>
+      <c r="I76" s="7"/>
+      <c r="J76" s="7"/>
+      <c r="K76" s="7"/>
+      <c r="L76" s="7"/>
     </row>
     <row r="77" spans="1:12">
-      <c r="A77" s="8"/>
-      <c r="B77" s="8"/>
-      <c r="C77" s="8"/>
-      <c r="D77" s="8"/>
-      <c r="E77" s="8"/>
-      <c r="F77" s="8"/>
-      <c r="G77" s="8"/>
-      <c r="H77" s="8"/>
-      <c r="I77" s="8"/>
-      <c r="J77" s="8"/>
-      <c r="K77" s="8"/>
-      <c r="L77" s="8"/>
+      <c r="A77" s="7"/>
+      <c r="B77" s="7"/>
+      <c r="C77" s="7"/>
+      <c r="D77" s="7"/>
+      <c r="E77" s="7"/>
+      <c r="F77" s="7"/>
+      <c r="G77" s="7"/>
+      <c r="H77" s="7"/>
+      <c r="I77" s="7"/>
+      <c r="J77" s="7"/>
+      <c r="K77" s="7"/>
+      <c r="L77" s="7"/>
     </row>
     <row r="78" spans="1:12">
-      <c r="A78" s="8"/>
-      <c r="B78" s="8" t="s">
+      <c r="A78" s="7"/>
+      <c r="B78" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="C78" s="8"/>
-      <c r="D78" s="8"/>
-      <c r="E78" s="8"/>
-      <c r="F78" s="8"/>
-      <c r="G78" s="8"/>
-      <c r="H78" s="8"/>
-      <c r="I78" s="8"/>
-      <c r="J78" s="8"/>
-      <c r="K78" s="8"/>
-      <c r="L78" s="8"/>
+      <c r="C78" s="7"/>
+      <c r="D78" s="7"/>
+      <c r="E78" s="7"/>
+      <c r="F78" s="7"/>
+      <c r="G78" s="7"/>
+      <c r="H78" s="7"/>
+      <c r="I78" s="7"/>
+      <c r="J78" s="7"/>
+      <c r="K78" s="7"/>
+      <c r="L78" s="7"/>
     </row>
     <row r="79" spans="1:12">
-      <c r="A79" s="8"/>
-      <c r="B79" s="8"/>
-      <c r="C79" s="8"/>
-      <c r="D79" s="8"/>
-      <c r="E79" s="8"/>
-      <c r="F79" s="8"/>
-      <c r="G79" s="8"/>
-      <c r="H79" s="8"/>
-      <c r="I79" s="8"/>
-      <c r="J79" s="8"/>
-      <c r="K79" s="8"/>
-      <c r="L79" s="8"/>
+      <c r="A79" s="7"/>
+      <c r="B79" s="7"/>
+      <c r="C79" s="7"/>
+      <c r="D79" s="7"/>
+      <c r="E79" s="7"/>
+      <c r="F79" s="7"/>
+      <c r="G79" s="7"/>
+      <c r="H79" s="7"/>
+      <c r="I79" s="7"/>
+      <c r="J79" s="7"/>
+      <c r="K79" s="7"/>
+      <c r="L79" s="7"/>
     </row>
     <row r="80" spans="1:12">
-      <c r="A80" s="8"/>
-      <c r="B80" s="8"/>
-      <c r="C80" s="30" t="s">
+      <c r="A80" s="7"/>
+      <c r="B80" s="7"/>
+      <c r="C80" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="D80" s="31"/>
-      <c r="E80" s="31"/>
-      <c r="F80" s="31"/>
-      <c r="G80" s="31"/>
-      <c r="H80" s="31"/>
-      <c r="I80" s="31"/>
-      <c r="J80" s="31"/>
-      <c r="K80" s="32"/>
-      <c r="L80" s="8"/>
+      <c r="D80" s="30"/>
+      <c r="E80" s="30"/>
+      <c r="F80" s="30"/>
+      <c r="G80" s="30"/>
+      <c r="H80" s="30"/>
+      <c r="I80" s="30"/>
+      <c r="J80" s="30"/>
+      <c r="K80" s="31"/>
+      <c r="L80" s="7"/>
     </row>
     <row r="81" spans="1:12">
-      <c r="A81" s="8"/>
-      <c r="B81" s="8"/>
-      <c r="C81" s="8"/>
-      <c r="D81" s="8"/>
-      <c r="E81" s="8"/>
-      <c r="F81" s="8"/>
-      <c r="G81" s="8"/>
-      <c r="H81" s="8"/>
-      <c r="I81" s="8"/>
-      <c r="J81" s="8"/>
-      <c r="K81" s="8"/>
-      <c r="L81" s="8"/>
+      <c r="A81" s="7"/>
+      <c r="B81" s="7"/>
+      <c r="C81" s="7"/>
+      <c r="D81" s="7"/>
+      <c r="E81" s="7"/>
+      <c r="F81" s="7"/>
+      <c r="G81" s="7"/>
+      <c r="H81" s="7"/>
+      <c r="I81" s="7"/>
+      <c r="J81" s="7"/>
+      <c r="K81" s="7"/>
+      <c r="L81" s="7"/>
     </row>
     <row r="82" spans="1:12">
-      <c r="A82" s="8"/>
-      <c r="B82" s="8" t="s">
+      <c r="A82" s="7"/>
+      <c r="B82" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="C82" s="8"/>
-      <c r="D82" s="8"/>
-      <c r="E82" s="8"/>
-      <c r="F82" s="8"/>
-      <c r="G82" s="8"/>
-      <c r="H82" s="8"/>
-      <c r="I82" s="8"/>
-      <c r="J82" s="8"/>
-      <c r="K82" s="8"/>
-      <c r="L82" s="8"/>
+      <c r="C82" s="7"/>
+      <c r="D82" s="7"/>
+      <c r="E82" s="7"/>
+      <c r="F82" s="7"/>
+      <c r="G82" s="7"/>
+      <c r="H82" s="7"/>
+      <c r="I82" s="7"/>
+      <c r="J82" s="7"/>
+      <c r="K82" s="7"/>
+      <c r="L82" s="7"/>
     </row>
     <row r="83" spans="1:12">
-      <c r="A83" s="8"/>
-      <c r="B83" s="8"/>
-      <c r="C83" s="8"/>
-      <c r="D83" s="8"/>
-      <c r="E83" s="8"/>
-      <c r="F83" s="8"/>
-      <c r="G83" s="8"/>
-      <c r="H83" s="8"/>
-      <c r="I83" s="8"/>
-      <c r="J83" s="8"/>
-      <c r="K83" s="8"/>
-      <c r="L83" s="8"/>
+      <c r="A83" s="7"/>
+      <c r="B83" s="7"/>
+      <c r="C83" s="7"/>
+      <c r="D83" s="7"/>
+      <c r="E83" s="7"/>
+      <c r="F83" s="7"/>
+      <c r="G83" s="7"/>
+      <c r="H83" s="7"/>
+      <c r="I83" s="7"/>
+      <c r="J83" s="7"/>
+      <c r="K83" s="7"/>
+      <c r="L83" s="7"/>
     </row>
     <row r="84" spans="1:12">
-      <c r="A84" s="8"/>
-      <c r="B84" s="8"/>
-      <c r="C84" s="8" t="s">
+      <c r="A84" s="7"/>
+      <c r="B84" s="7"/>
+      <c r="C84" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="D84" s="8"/>
-      <c r="E84" s="8"/>
-      <c r="F84" s="8"/>
-      <c r="G84" s="8"/>
-      <c r="H84" s="8"/>
-      <c r="I84" s="8"/>
-      <c r="J84" s="8"/>
-      <c r="K84" s="8"/>
-      <c r="L84" s="8"/>
+      <c r="D84" s="7"/>
+      <c r="E84" s="7"/>
+      <c r="F84" s="7"/>
+      <c r="G84" s="7"/>
+      <c r="H84" s="7"/>
+      <c r="I84" s="7"/>
+      <c r="J84" s="7"/>
+      <c r="K84" s="7"/>
+      <c r="L84" s="7"/>
     </row>
     <row r="85" spans="1:12">
-      <c r="A85" s="8"/>
-      <c r="B85" s="8"/>
-      <c r="C85" s="30" t="s">
+      <c r="A85" s="7"/>
+      <c r="B85" s="7"/>
+      <c r="C85" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="D85" s="31"/>
-      <c r="E85" s="31"/>
-      <c r="F85" s="31"/>
-      <c r="G85" s="31"/>
-      <c r="H85" s="31"/>
-      <c r="I85" s="31"/>
-      <c r="J85" s="31"/>
-      <c r="K85" s="32"/>
-      <c r="L85" s="8"/>
+      <c r="D85" s="30"/>
+      <c r="E85" s="30"/>
+      <c r="F85" s="30"/>
+      <c r="G85" s="30"/>
+      <c r="H85" s="30"/>
+      <c r="I85" s="30"/>
+      <c r="J85" s="30"/>
+      <c r="K85" s="31"/>
+      <c r="L85" s="7"/>
     </row>
     <row r="86" spans="1:12">
-      <c r="A86" s="8"/>
-      <c r="B86" s="8"/>
-      <c r="C86" s="8"/>
-      <c r="D86" s="8"/>
-      <c r="E86" s="8"/>
-      <c r="F86" s="8"/>
-      <c r="G86" s="8"/>
-      <c r="H86" s="8"/>
-      <c r="I86" s="8"/>
-      <c r="J86" s="8"/>
-      <c r="K86" s="8"/>
-      <c r="L86" s="8"/>
+      <c r="A86" s="7"/>
+      <c r="B86" s="7"/>
+      <c r="C86" s="7"/>
+      <c r="D86" s="7"/>
+      <c r="E86" s="7"/>
+      <c r="F86" s="7"/>
+      <c r="G86" s="7"/>
+      <c r="H86" s="7"/>
+      <c r="I86" s="7"/>
+      <c r="J86" s="7"/>
+      <c r="K86" s="7"/>
+      <c r="L86" s="7"/>
     </row>
     <row r="87" spans="1:12">
-      <c r="A87" s="8"/>
-      <c r="B87" s="8"/>
-      <c r="C87" s="8" t="s">
+      <c r="A87" s="7"/>
+      <c r="B87" s="7"/>
+      <c r="C87" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="D87" s="8"/>
-      <c r="E87" s="8"/>
-      <c r="F87" s="8"/>
-      <c r="G87" s="8"/>
-      <c r="H87" s="8"/>
-      <c r="I87" s="8"/>
-      <c r="J87" s="8"/>
-      <c r="K87" s="8"/>
-      <c r="L87" s="8"/>
+      <c r="D87" s="7"/>
+      <c r="E87" s="7"/>
+      <c r="F87" s="7"/>
+      <c r="G87" s="7"/>
+      <c r="H87" s="7"/>
+      <c r="I87" s="7"/>
+      <c r="J87" s="7"/>
+      <c r="K87" s="7"/>
+      <c r="L87" s="7"/>
     </row>
     <row r="88" spans="1:12">
-      <c r="A88" s="8"/>
-      <c r="B88" s="8"/>
-      <c r="C88" s="30" t="s">
+      <c r="A88" s="7"/>
+      <c r="B88" s="7"/>
+      <c r="C88" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="D88" s="31"/>
-      <c r="E88" s="31"/>
-      <c r="F88" s="31"/>
-      <c r="G88" s="31"/>
-      <c r="H88" s="31"/>
-      <c r="I88" s="31"/>
-      <c r="J88" s="31"/>
-      <c r="K88" s="32"/>
-      <c r="L88" s="8"/>
+      <c r="D88" s="30"/>
+      <c r="E88" s="30"/>
+      <c r="F88" s="30"/>
+      <c r="G88" s="30"/>
+      <c r="H88" s="30"/>
+      <c r="I88" s="30"/>
+      <c r="J88" s="30"/>
+      <c r="K88" s="31"/>
+      <c r="L88" s="7"/>
     </row>
     <row r="89" spans="1:12">
-      <c r="A89" s="8"/>
-      <c r="B89" s="8"/>
-      <c r="C89" s="8"/>
-      <c r="D89" s="8"/>
-      <c r="E89" s="8"/>
-      <c r="F89" s="8"/>
-      <c r="G89" s="8"/>
-      <c r="H89" s="8"/>
-      <c r="I89" s="8"/>
-      <c r="J89" s="8"/>
-      <c r="K89" s="8"/>
-      <c r="L89" s="8"/>
+      <c r="A89" s="7"/>
+      <c r="B89" s="7"/>
+      <c r="C89" s="7"/>
+      <c r="D89" s="7"/>
+      <c r="E89" s="7"/>
+      <c r="F89" s="7"/>
+      <c r="G89" s="7"/>
+      <c r="H89" s="7"/>
+      <c r="I89" s="7"/>
+      <c r="J89" s="7"/>
+      <c r="K89" s="7"/>
+      <c r="L89" s="7"/>
     </row>
     <row r="90" spans="3:3">
-      <c r="C90" s="7" t="s">
+      <c r="C90" t="s">
         <v>83</v>
       </c>
     </row>
@@ -3025,7 +3022,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1609307454" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1609317816" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -3036,16 +3033,16 @@
     <oddFooter>&amp;C&amp;"Times New Roman"&amp;12ページ &amp;P</oddFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1609307454" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1609307454" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1609307454" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1609307454" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1609317816" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1609317816" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1609317816" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1609317816" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1609307454" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1609317816" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -3059,325 +3056,327 @@
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" view="normal" zoomScale="120" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="13.000000" customWidth="1" style="7"/>
-    <col min="2" max="8" width="13.500000" customWidth="1" style="7"/>
-    <col min="9" max="9" width="44.245455" customWidth="1" style="7"/>
+    <col min="1" max="1" width="13.000000" customWidth="1" style="0"/>
+    <col min="2" max="8" width="13.500000" customWidth="1" style="0"/>
+    <col min="9" max="9" width="44.245455" customWidth="1" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="16" t="s">
+      <c r="H2" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="16" t="s">
+      <c r="I2" s="15" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="F3" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="17" t="s">
+      <c r="G3" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="17" t="s">
+      <c r="H3" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="I3" s="17" t="s">
+      <c r="I3" s="16" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="17"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="18"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="21"/>
+      <c r="A5" s="17"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="20"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="18"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="21"/>
+      <c r="A6" s="17"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="20"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="18"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="21"/>
+      <c r="A7" s="17"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="20"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="18"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="21"/>
+      <c r="A8" s="17"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="20"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="21"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="21"/>
+      <c r="A9" s="20"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="20"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="18"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="22"/>
+      <c r="A10" s="17"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="21"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="21"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="22"/>
+      <c r="A11" s="20"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="21"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="18"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="22"/>
+      <c r="A12" s="17"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="21"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="18"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="22"/>
+      <c r="A13" s="17"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="21"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="21"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="22"/>
+      <c r="A14" s="20"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="21"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="21"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="22"/>
+      <c r="A15" s="20"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="21"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="21"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="22"/>
+      <c r="A16" s="20"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="21"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="21"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="22"/>
+      <c r="A17" s="20"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="21"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="21"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="22"/>
+      <c r="A18" s="20"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="21"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="21"/>
-      <c r="B19" s="18"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="22"/>
+      <c r="A19" s="20"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="21"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="33"/>
-      <c r="B20" s="18"/>
-      <c r="C20" s="34"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="35"/>
-      <c r="H20" s="35"/>
-      <c r="I20" s="22"/>
+      <c r="A20" s="32"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="34"/>
+      <c r="I20" s="21"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="33"/>
-      <c r="B21" s="18"/>
-      <c r="C21" s="34"/>
-      <c r="D21" s="35"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="35"/>
-      <c r="G21" s="35"/>
-      <c r="H21" s="35"/>
-      <c r="I21" s="22"/>
+      <c r="A21" s="32"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="34"/>
+      <c r="I21" s="21"/>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="33"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="34"/>
-      <c r="D22" s="35"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="35"/>
-      <c r="H22" s="35"/>
-      <c r="I22" s="22"/>
+      <c r="A22" s="32"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="34"/>
+      <c r="I22" s="21"/>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="33"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="34"/>
-      <c r="D23" s="35"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="35"/>
-      <c r="G23" s="35"/>
-      <c r="H23" s="35"/>
-      <c r="I23" s="22"/>
+      <c r="A23" s="32"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="21"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="33"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="34"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="35"/>
-      <c r="G24" s="35"/>
-      <c r="H24" s="35"/>
-      <c r="I24" s="22"/>
+      <c r="A24" s="32"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="34"/>
+      <c r="H24" s="34"/>
+      <c r="I24" s="21"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -3388,7 +3387,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1609307454" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1609317816" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -3399,16 +3398,16 @@
     <oddFooter>&amp;C&amp;"Times New Roman"&amp;12ページ &amp;P</oddFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1609307454" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1609307454" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1609307454" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1609307454" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1609317816" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1609317816" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1609317816" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1609317816" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1609307454" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1609317816" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -3427,614 +3426,614 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="9" defaultColWidth="10.000000" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="19.890909" customWidth="1" style="7"/>
+    <col min="1" max="1" width="19.890909" customWidth="1" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="22"/>
+      <c r="A1" s="21"/>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="22"/>
+      <c r="A2" s="21"/>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="22"/>
+      <c r="A3" s="21"/>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="22"/>
+      <c r="A4" s="21"/>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="22"/>
+      <c r="A5" s="21"/>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="22"/>
+      <c r="A6" s="21"/>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="22"/>
+      <c r="A7" s="21"/>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="22"/>
+      <c r="A8" s="21"/>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="22"/>
+      <c r="A9" s="21"/>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="22"/>
+      <c r="A10" s="21"/>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="22"/>
+      <c r="A11" s="21"/>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="22"/>
+      <c r="A12" s="21"/>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="22"/>
+      <c r="A13" s="21"/>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="22"/>
+      <c r="A14" s="21"/>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="22"/>
+      <c r="A15" s="21"/>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="22"/>
+      <c r="A16" s="21"/>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="22"/>
+      <c r="A17" s="21"/>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="36"/>
+      <c r="A18" s="35"/>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="36"/>
+      <c r="A19" s="35"/>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="36"/>
+      <c r="A20" s="35"/>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="36"/>
+      <c r="A21" s="35"/>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="36"/>
+      <c r="A22" s="35"/>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="36"/>
+      <c r="A23" s="35"/>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="36"/>
+      <c r="A24" s="35"/>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="36"/>
+      <c r="A25" s="35"/>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="36"/>
+      <c r="A26" s="35"/>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="36"/>
+      <c r="A27" s="35"/>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="36"/>
+      <c r="A28" s="35"/>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" s="36"/>
+      <c r="A29" s="35"/>
     </row>
     <row r="30" spans="1:1">
-      <c r="A30" s="36"/>
+      <c r="A30" s="35"/>
     </row>
     <row r="31" spans="1:1">
-      <c r="A31" s="36"/>
+      <c r="A31" s="35"/>
     </row>
     <row r="32" spans="1:1">
-      <c r="A32" s="36"/>
+      <c r="A32" s="35"/>
     </row>
     <row r="33" spans="1:1">
-      <c r="A33" s="36"/>
+      <c r="A33" s="35"/>
     </row>
     <row r="34" spans="1:1">
-      <c r="A34" s="36"/>
+      <c r="A34" s="35"/>
     </row>
     <row r="35" spans="1:1">
-      <c r="A35" s="36"/>
+      <c r="A35" s="35"/>
     </row>
     <row r="36" spans="1:1">
-      <c r="A36" s="36"/>
+      <c r="A36" s="35"/>
     </row>
     <row r="37" spans="1:1">
-      <c r="A37" s="36"/>
+      <c r="A37" s="35"/>
     </row>
     <row r="38" spans="1:1">
-      <c r="A38" s="36"/>
+      <c r="A38" s="35"/>
     </row>
     <row r="39" spans="1:1">
-      <c r="A39" s="36"/>
+      <c r="A39" s="35"/>
     </row>
     <row r="40" spans="1:1">
-      <c r="A40" s="36"/>
+      <c r="A40" s="35"/>
     </row>
     <row r="41" spans="1:1">
-      <c r="A41" s="36"/>
+      <c r="A41" s="35"/>
     </row>
     <row r="42" spans="1:1">
-      <c r="A42" s="36"/>
+      <c r="A42" s="35"/>
     </row>
     <row r="43" spans="1:1">
-      <c r="A43" s="36"/>
+      <c r="A43" s="35"/>
     </row>
     <row r="44" spans="1:1">
-      <c r="A44" s="36"/>
+      <c r="A44" s="35"/>
     </row>
     <row r="45" spans="1:1">
-      <c r="A45" s="36"/>
+      <c r="A45" s="35"/>
     </row>
     <row r="46" spans="1:1">
-      <c r="A46" s="36"/>
+      <c r="A46" s="35"/>
     </row>
     <row r="47" spans="1:1">
-      <c r="A47" s="36"/>
+      <c r="A47" s="35"/>
     </row>
     <row r="48" spans="1:1">
-      <c r="A48" s="36"/>
+      <c r="A48" s="35"/>
     </row>
     <row r="49" spans="1:1">
-      <c r="A49" s="36"/>
+      <c r="A49" s="35"/>
     </row>
     <row r="50" spans="1:1">
-      <c r="A50" s="36"/>
+      <c r="A50" s="35"/>
     </row>
     <row r="51" spans="1:1">
-      <c r="A51" s="36"/>
+      <c r="A51" s="35"/>
     </row>
     <row r="52" spans="1:1">
-      <c r="A52" s="36"/>
+      <c r="A52" s="35"/>
     </row>
     <row r="53" spans="1:1">
-      <c r="A53" s="36"/>
+      <c r="A53" s="35"/>
     </row>
     <row r="54" spans="1:1">
-      <c r="A54" s="36"/>
+      <c r="A54" s="35"/>
     </row>
     <row r="55" spans="1:1">
-      <c r="A55" s="36"/>
+      <c r="A55" s="35"/>
     </row>
     <row r="56" spans="1:1">
-      <c r="A56" s="36"/>
+      <c r="A56" s="35"/>
     </row>
     <row r="57" spans="1:1">
-      <c r="A57" s="36"/>
+      <c r="A57" s="35"/>
     </row>
     <row r="58" spans="1:1">
-      <c r="A58" s="36"/>
+      <c r="A58" s="35"/>
     </row>
     <row r="59" spans="1:1">
-      <c r="A59" s="36"/>
+      <c r="A59" s="35"/>
     </row>
     <row r="60" spans="1:1">
-      <c r="A60" s="36"/>
+      <c r="A60" s="35"/>
     </row>
     <row r="61" spans="1:1">
-      <c r="A61" s="36"/>
+      <c r="A61" s="35"/>
     </row>
     <row r="62" spans="1:1">
-      <c r="A62" s="36"/>
+      <c r="A62" s="35"/>
     </row>
     <row r="63" spans="1:1">
-      <c r="A63" s="36"/>
+      <c r="A63" s="35"/>
     </row>
     <row r="64" spans="1:1">
-      <c r="A64" s="36"/>
+      <c r="A64" s="35"/>
     </row>
     <row r="65" spans="1:1">
-      <c r="A65" s="36"/>
+      <c r="A65" s="35"/>
     </row>
     <row r="66" spans="1:1">
-      <c r="A66" s="36"/>
+      <c r="A66" s="35"/>
     </row>
     <row r="67" spans="1:1">
-      <c r="A67" s="36"/>
+      <c r="A67" s="35"/>
     </row>
     <row r="68" spans="1:1">
-      <c r="A68" s="36"/>
+      <c r="A68" s="35"/>
     </row>
     <row r="69" spans="1:1">
-      <c r="A69" s="36"/>
+      <c r="A69" s="35"/>
     </row>
     <row r="70" spans="1:1">
-      <c r="A70" s="36"/>
+      <c r="A70" s="35"/>
     </row>
     <row r="71" spans="1:1">
-      <c r="A71" s="36"/>
+      <c r="A71" s="35"/>
     </row>
     <row r="72" spans="1:1">
-      <c r="A72" s="36"/>
+      <c r="A72" s="35"/>
     </row>
     <row r="73" spans="1:1">
-      <c r="A73" s="36"/>
+      <c r="A73" s="35"/>
     </row>
     <row r="74" spans="1:1">
-      <c r="A74" s="36"/>
+      <c r="A74" s="35"/>
     </row>
     <row r="75" spans="1:1">
-      <c r="A75" s="36"/>
+      <c r="A75" s="35"/>
     </row>
     <row r="76" spans="1:1">
-      <c r="A76" s="36"/>
+      <c r="A76" s="35"/>
     </row>
     <row r="77" spans="1:1">
-      <c r="A77" s="36"/>
+      <c r="A77" s="35"/>
     </row>
     <row r="78" spans="1:1">
-      <c r="A78" s="36"/>
+      <c r="A78" s="35"/>
     </row>
     <row r="79" spans="1:1">
-      <c r="A79" s="36"/>
+      <c r="A79" s="35"/>
     </row>
     <row r="80" spans="1:1">
-      <c r="A80" s="36"/>
+      <c r="A80" s="35"/>
     </row>
     <row r="81" spans="1:1">
-      <c r="A81" s="36"/>
+      <c r="A81" s="35"/>
     </row>
     <row r="82" spans="1:1">
-      <c r="A82" s="36"/>
+      <c r="A82" s="35"/>
     </row>
     <row r="83" spans="1:1">
-      <c r="A83" s="36"/>
+      <c r="A83" s="35"/>
     </row>
     <row r="84" spans="1:1">
-      <c r="A84" s="36"/>
+      <c r="A84" s="35"/>
     </row>
     <row r="85" spans="1:1">
-      <c r="A85" s="36"/>
+      <c r="A85" s="35"/>
     </row>
     <row r="86" spans="1:1">
-      <c r="A86" s="36"/>
+      <c r="A86" s="35"/>
     </row>
     <row r="87" spans="1:1">
-      <c r="A87" s="36"/>
+      <c r="A87" s="35"/>
     </row>
     <row r="88" spans="1:1">
-      <c r="A88" s="36"/>
+      <c r="A88" s="35"/>
     </row>
     <row r="89" spans="1:1">
-      <c r="A89" s="36"/>
+      <c r="A89" s="35"/>
     </row>
     <row r="90" spans="1:1">
-      <c r="A90" s="36"/>
+      <c r="A90" s="35"/>
     </row>
     <row r="91" spans="1:1">
-      <c r="A91" s="36"/>
+      <c r="A91" s="35"/>
     </row>
     <row r="92" spans="1:1">
-      <c r="A92" s="36"/>
+      <c r="A92" s="35"/>
     </row>
     <row r="93" spans="1:1">
-      <c r="A93" s="36"/>
+      <c r="A93" s="35"/>
     </row>
     <row r="94" spans="1:1">
-      <c r="A94" s="36"/>
+      <c r="A94" s="35"/>
     </row>
     <row r="95" spans="1:1">
-      <c r="A95" s="36"/>
+      <c r="A95" s="35"/>
     </row>
     <row r="96" spans="1:1">
-      <c r="A96" s="36"/>
+      <c r="A96" s="35"/>
     </row>
     <row r="97" spans="1:1">
-      <c r="A97" s="36"/>
+      <c r="A97" s="35"/>
     </row>
     <row r="98" spans="1:1">
-      <c r="A98" s="36"/>
+      <c r="A98" s="35"/>
     </row>
     <row r="99" spans="1:1">
-      <c r="A99" s="36"/>
+      <c r="A99" s="35"/>
     </row>
     <row r="100" spans="1:1">
-      <c r="A100" s="36"/>
+      <c r="A100" s="35"/>
     </row>
     <row r="101" spans="1:1">
-      <c r="A101" s="36"/>
+      <c r="A101" s="35"/>
     </row>
     <row r="102" spans="1:1">
-      <c r="A102" s="36"/>
+      <c r="A102" s="35"/>
     </row>
     <row r="103" spans="1:1">
-      <c r="A103" s="36"/>
+      <c r="A103" s="35"/>
     </row>
     <row r="104" spans="1:1">
-      <c r="A104" s="36"/>
+      <c r="A104" s="35"/>
     </row>
     <row r="105" spans="1:1">
-      <c r="A105" s="36"/>
+      <c r="A105" s="35"/>
     </row>
     <row r="106" spans="1:1">
-      <c r="A106" s="36"/>
+      <c r="A106" s="35"/>
     </row>
     <row r="107" spans="1:1">
-      <c r="A107" s="36"/>
+      <c r="A107" s="35"/>
     </row>
     <row r="108" spans="1:1">
-      <c r="A108" s="36"/>
+      <c r="A108" s="35"/>
     </row>
     <row r="109" spans="1:1">
-      <c r="A109" s="36"/>
+      <c r="A109" s="35"/>
     </row>
     <row r="110" spans="1:1">
-      <c r="A110" s="36"/>
+      <c r="A110" s="35"/>
     </row>
     <row r="111" spans="1:1">
-      <c r="A111" s="36"/>
+      <c r="A111" s="35"/>
     </row>
     <row r="112" spans="1:1">
-      <c r="A112" s="36"/>
+      <c r="A112" s="35"/>
     </row>
     <row r="113" spans="1:1">
-      <c r="A113" s="36"/>
+      <c r="A113" s="35"/>
     </row>
     <row r="114" spans="1:1">
-      <c r="A114" s="36"/>
+      <c r="A114" s="35"/>
     </row>
     <row r="115" spans="1:1">
-      <c r="A115" s="36"/>
+      <c r="A115" s="35"/>
     </row>
     <row r="116" spans="1:1">
-      <c r="A116" s="36"/>
+      <c r="A116" s="35"/>
     </row>
     <row r="117" spans="1:1">
-      <c r="A117" s="36"/>
+      <c r="A117" s="35"/>
     </row>
     <row r="118" spans="1:1">
-      <c r="A118" s="36"/>
+      <c r="A118" s="35"/>
     </row>
     <row r="119" spans="1:1">
-      <c r="A119" s="36"/>
+      <c r="A119" s="35"/>
     </row>
     <row r="120" spans="1:1">
-      <c r="A120" s="36"/>
+      <c r="A120" s="35"/>
     </row>
     <row r="121" spans="1:1">
-      <c r="A121" s="36"/>
+      <c r="A121" s="35"/>
     </row>
     <row r="122" spans="1:1">
-      <c r="A122" s="36"/>
+      <c r="A122" s="35"/>
     </row>
     <row r="123" spans="1:1">
-      <c r="A123" s="36"/>
+      <c r="A123" s="35"/>
     </row>
     <row r="124" spans="1:1">
-      <c r="A124" s="36"/>
+      <c r="A124" s="35"/>
     </row>
     <row r="125" spans="1:1">
-      <c r="A125" s="36"/>
+      <c r="A125" s="35"/>
     </row>
     <row r="126" spans="1:1">
-      <c r="A126" s="36"/>
+      <c r="A126" s="35"/>
     </row>
     <row r="127" spans="1:1">
-      <c r="A127" s="36"/>
+      <c r="A127" s="35"/>
     </row>
     <row r="128" spans="1:1">
-      <c r="A128" s="36"/>
+      <c r="A128" s="35"/>
     </row>
     <row r="129" spans="1:1">
-      <c r="A129" s="36"/>
+      <c r="A129" s="35"/>
     </row>
     <row r="130" spans="1:1">
-      <c r="A130" s="36"/>
+      <c r="A130" s="35"/>
     </row>
     <row r="131" spans="1:1">
-      <c r="A131" s="36"/>
+      <c r="A131" s="35"/>
     </row>
     <row r="132" spans="1:1">
-      <c r="A132" s="36"/>
+      <c r="A132" s="35"/>
     </row>
     <row r="133" spans="1:1">
-      <c r="A133" s="36"/>
+      <c r="A133" s="35"/>
     </row>
     <row r="134" spans="1:1">
-      <c r="A134" s="36"/>
+      <c r="A134" s="35"/>
     </row>
     <row r="135" spans="1:1">
-      <c r="A135" s="36"/>
+      <c r="A135" s="35"/>
     </row>
     <row r="136" spans="1:1">
-      <c r="A136" s="36"/>
+      <c r="A136" s="35"/>
     </row>
     <row r="137" spans="1:1">
-      <c r="A137" s="36"/>
+      <c r="A137" s="35"/>
     </row>
     <row r="138" spans="1:1">
-      <c r="A138" s="36"/>
+      <c r="A138" s="35"/>
     </row>
     <row r="139" spans="1:1">
-      <c r="A139" s="36"/>
+      <c r="A139" s="35"/>
     </row>
     <row r="140" spans="1:1">
-      <c r="A140" s="36"/>
+      <c r="A140" s="35"/>
     </row>
     <row r="141" spans="1:1">
-      <c r="A141" s="36"/>
+      <c r="A141" s="35"/>
     </row>
     <row r="142" spans="1:1">
-      <c r="A142" s="36"/>
+      <c r="A142" s="35"/>
     </row>
     <row r="143" spans="1:1">
-      <c r="A143" s="36"/>
+      <c r="A143" s="35"/>
     </row>
     <row r="144" spans="1:1">
-      <c r="A144" s="36"/>
+      <c r="A144" s="35"/>
     </row>
     <row r="145" spans="1:1">
-      <c r="A145" s="36"/>
+      <c r="A145" s="35"/>
     </row>
     <row r="146" spans="1:1">
-      <c r="A146" s="36"/>
+      <c r="A146" s="35"/>
     </row>
     <row r="147" spans="1:1">
-      <c r="A147" s="36"/>
+      <c r="A147" s="35"/>
     </row>
     <row r="148" spans="1:1">
-      <c r="A148" s="36"/>
+      <c r="A148" s="35"/>
     </row>
     <row r="149" spans="1:1">
-      <c r="A149" s="36"/>
+      <c r="A149" s="35"/>
     </row>
     <row r="150" spans="1:1">
-      <c r="A150" s="36"/>
+      <c r="A150" s="35"/>
     </row>
     <row r="151" spans="1:1">
-      <c r="A151" s="36"/>
+      <c r="A151" s="35"/>
     </row>
     <row r="152" spans="1:1">
-      <c r="A152" s="36"/>
+      <c r="A152" s="35"/>
     </row>
     <row r="153" spans="1:1">
-      <c r="A153" s="36"/>
+      <c r="A153" s="35"/>
     </row>
     <row r="154" spans="1:1">
-      <c r="A154" s="36"/>
+      <c r="A154" s="35"/>
     </row>
     <row r="155" spans="1:1">
-      <c r="A155" s="36"/>
+      <c r="A155" s="35"/>
     </row>
     <row r="156" spans="1:1">
-      <c r="A156" s="36"/>
+      <c r="A156" s="35"/>
     </row>
     <row r="157" spans="1:1">
-      <c r="A157" s="36"/>
+      <c r="A157" s="35"/>
     </row>
     <row r="158" spans="1:1">
-      <c r="A158" s="36"/>
+      <c r="A158" s="35"/>
     </row>
     <row r="159" spans="1:1">
-      <c r="A159" s="36"/>
+      <c r="A159" s="35"/>
     </row>
     <row r="160" spans="1:1">
-      <c r="A160" s="36"/>
+      <c r="A160" s="35"/>
     </row>
     <row r="161" spans="1:1">
-      <c r="A161" s="36"/>
+      <c r="A161" s="35"/>
     </row>
     <row r="162" spans="1:1">
-      <c r="A162" s="36"/>
+      <c r="A162" s="35"/>
     </row>
     <row r="163" spans="1:1">
-      <c r="A163" s="36"/>
+      <c r="A163" s="35"/>
     </row>
     <row r="164" spans="1:1">
-      <c r="A164" s="36"/>
+      <c r="A164" s="35"/>
     </row>
     <row r="165" spans="1:1">
-      <c r="A165" s="36"/>
+      <c r="A165" s="35"/>
     </row>
     <row r="166" spans="1:1">
-      <c r="A166" s="36"/>
+      <c r="A166" s="35"/>
     </row>
     <row r="167" spans="1:1">
-      <c r="A167" s="36"/>
+      <c r="A167" s="35"/>
     </row>
     <row r="168" spans="1:1">
-      <c r="A168" s="36"/>
+      <c r="A168" s="35"/>
     </row>
     <row r="169" spans="1:1">
-      <c r="A169" s="36"/>
+      <c r="A169" s="35"/>
     </row>
     <row r="170" spans="1:1">
-      <c r="A170" s="36"/>
+      <c r="A170" s="35"/>
     </row>
     <row r="171" spans="1:1">
-      <c r="A171" s="36"/>
+      <c r="A171" s="35"/>
     </row>
     <row r="172" spans="1:1">
-      <c r="A172" s="36"/>
+      <c r="A172" s="35"/>
     </row>
     <row r="173" spans="1:1">
-      <c r="A173" s="36"/>
+      <c r="A173" s="35"/>
     </row>
     <row r="174" spans="1:1">
-      <c r="A174" s="36"/>
+      <c r="A174" s="35"/>
     </row>
     <row r="175" spans="1:1">
-      <c r="A175" s="36"/>
+      <c r="A175" s="35"/>
     </row>
     <row r="176" spans="1:1">
-      <c r="A176" s="36"/>
+      <c r="A176" s="35"/>
     </row>
     <row r="177" spans="1:1">
-      <c r="A177" s="36"/>
+      <c r="A177" s="35"/>
     </row>
     <row r="178" spans="1:1">
-      <c r="A178" s="36"/>
+      <c r="A178" s="35"/>
     </row>
     <row r="179" spans="1:1">
-      <c r="A179" s="36"/>
+      <c r="A179" s="35"/>
     </row>
     <row r="180" spans="1:1">
-      <c r="A180" s="36"/>
+      <c r="A180" s="35"/>
     </row>
     <row r="181" spans="1:1">
-      <c r="A181" s="36"/>
+      <c r="A181" s="35"/>
     </row>
     <row r="182" spans="1:1">
-      <c r="A182" s="36"/>
+      <c r="A182" s="35"/>
     </row>
     <row r="183" spans="1:1">
-      <c r="A183" s="36"/>
+      <c r="A183" s="35"/>
     </row>
     <row r="184" spans="1:1">
-      <c r="A184" s="36"/>
+      <c r="A184" s="35"/>
     </row>
     <row r="185" spans="1:1">
-      <c r="A185" s="36"/>
+      <c r="A185" s="35"/>
     </row>
     <row r="186" spans="1:1">
-      <c r="A186" s="36"/>
+      <c r="A186" s="35"/>
     </row>
     <row r="187" spans="1:1">
-      <c r="A187" s="36"/>
+      <c r="A187" s="35"/>
     </row>
     <row r="188" spans="1:1">
-      <c r="A188" s="36"/>
+      <c r="A188" s="35"/>
     </row>
     <row r="189" spans="1:1">
-      <c r="A189" s="36"/>
+      <c r="A189" s="35"/>
     </row>
     <row r="190" spans="1:1">
-      <c r="A190" s="36"/>
+      <c r="A190" s="35"/>
     </row>
     <row r="191" spans="1:1">
-      <c r="A191" s="36"/>
+      <c r="A191" s="35"/>
     </row>
     <row r="192" spans="1:1">
-      <c r="A192" s="36"/>
+      <c r="A192" s="35"/>
     </row>
     <row r="193" spans="1:1">
-      <c r="A193" s="36"/>
+      <c r="A193" s="35"/>
     </row>
     <row r="194" spans="1:1">
-      <c r="A194" s="36"/>
+      <c r="A194" s="35"/>
     </row>
     <row r="195" spans="1:1">
-      <c r="A195" s="36"/>
+      <c r="A195" s="35"/>
     </row>
     <row r="196" spans="1:1">
-      <c r="A196" s="36"/>
+      <c r="A196" s="35"/>
     </row>
     <row r="197" spans="1:1">
-      <c r="A197" s="36"/>
+      <c r="A197" s="35"/>
     </row>
     <row r="198" spans="1:1">
-      <c r="A198" s="36"/>
+      <c r="A198" s="35"/>
     </row>
     <row r="199" spans="1:1">
-      <c r="A199" s="36"/>
+      <c r="A199" s="35"/>
     </row>
     <row r="200" spans="1:1">
-      <c r="A200" s="36"/>
+      <c r="A200" s="35"/>
     </row>
   </sheetData>
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1609307454" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1609317816" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -4043,16 +4042,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1609307454" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1609307454" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1609307454" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1609307454" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1609317816" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1609317816" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1609317816" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1609317816" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1609307454" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1609317816" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
